--- a/進捗報告表_12_健康優良児.xlsx
+++ b/進捗報告表_12_健康優良児.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7ADC91-BF58-49C8-BEBF-79DEAF5A077C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA17A10D-2F3F-41FE-9716-9F25C85E8138}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{92FD14BA-1C0B-4584-BFC6-31C96DE4D3F1}"/>
   </bookViews>
@@ -31,25 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
       <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>良かった・継続する点</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>改善点・解決策</t>
-    <rPh sb="0" eb="3">
-      <t>カイゼンテン</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>カイケツサク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -142,8 +128,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・B.要求分析の合否レビュー(2回目)
-・C.分析-成果物作成-シーケンス図</t>
+    <t>・B.要求分析の合否レビュー2回目(未遂)
+・C.分析-成果物作成-クラス図(未完)
+・C.分析-成果物作成-シーケンス図(未遂)</t>
     <rPh sb="3" eb="5">
       <t>ヨウキュウ</t>
     </rPh>
@@ -153,20 +140,136 @@
     <rPh sb="8" eb="10">
       <t>ゴウヒ</t>
     </rPh>
-    <rPh sb="16" eb="18">
+    <rPh sb="15" eb="17">
       <t>カイメ</t>
     </rPh>
-    <rPh sb="23" eb="25">
+    <rPh sb="18" eb="20">
+      <t>ミスイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ミカン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
       <t>ブンセキ</t>
     </rPh>
-    <rPh sb="26" eb="29">
+    <rPh sb="49" eb="52">
       <t>セイカブツ</t>
     </rPh>
-    <rPh sb="29" eb="31">
+    <rPh sb="52" eb="54">
       <t>サクセイ</t>
     </rPh>
-    <rPh sb="37" eb="38">
+    <rPh sb="60" eb="61">
       <t>ズ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ミスイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応策</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・実装と同時並行でテストコードを書く
+</t>
+    <rPh sb="1" eb="3">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘイコウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C.分析-成果物作成-クラス図
+　　　　　　　　-シーケンス図</t>
+    <rPh sb="2" eb="4">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>セイカブツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D.設計-クラス図、シーケンス図</t>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">D.設計-テスト仕様書(未完)
+D.設計-レビュー(未遂)
+E.実装-コード(未遂)
+</t>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ミカン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ミスイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ミスイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・悩む時間が多いので、相談レビューを活用する</t>
+    <rPh sb="1" eb="2">
+      <t>ナヤ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソウダン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -229,21 +332,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,53 +665,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11F055C-9169-4CD1-9D80-6F2594AA00A7}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="4" width="33.75" customWidth="1"/>
-    <col min="5" max="6" width="51.75" customWidth="1"/>
+    <col min="5" max="5" width="51.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="114.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
+        <v>43984</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="112.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4">
-        <v>43984</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+    <row r="3" spans="1:5" ht="114.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="5">
+        <v>43985</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
